--- a/app/Plantillas/Validados/PRUEBA_texto2.xlsx
+++ b/app/Plantillas/Validados/PRUEBA_texto2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/juanse_barrios_urosario_edu_co/Documents/Prueba/PRUEBA.Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\validadorInteligenteDeDatos\app\Plantillas\Validados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{118CB062-9E20-43F3-BD9F-0B5D3A9CDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E99F93B-7CFA-4F3C-98E6-F51E8D709CB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D199A7C0-EBF5-4360-B92E-C9AB683D2195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="2685" windowWidth="11760" windowHeight="9585" xr2:uid="{15ED24BE-1488-48EF-A010-57EF26C17965}"/>
+    <workbookView xWindow="7875" yWindow="1440" windowWidth="16050" windowHeight="11220" xr2:uid="{15ED24BE-1488-48EF-A010-57EF26C17965}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Raton</t>
-  </si>
-  <si>
-    <t>veinte20</t>
-  </si>
-  <si>
-    <t>seis6</t>
   </si>
 </sst>
 </file>
@@ -115,10 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,8 +454,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,8 +465,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -485,6 +475,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002D5ED4115B9003418692FD310DAC290A" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c12d06d11d21eac882640e5e64075070">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="037b9be7-2a32-4e2c-afc5-f4da28bcad7c" xmlns:ns3="1d34d3a6-52ea-493c-a55d-424e25a3e944" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c923ca1961aab4f67d511731a90c900" ns2:_="" ns3:_="">
     <xsd:import namespace="037b9be7-2a32-4e2c-afc5-f4da28bcad7c"/>
@@ -719,15 +718,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -740,15 +730,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61449E78-B391-4460-A786-C9A6239C3E0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7EDA597-F2DB-4377-863C-E41735B27FDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B290B35-5007-45AB-A440-B1BE482D6F54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F268C56-B6AC-446C-A3FB-E2321BC0C50A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="037b9be7-2a32-4e2c-afc5-f4da28bcad7c"/>
+    <ds:schemaRef ds:uri="1d34d3a6-52ea-493c-a55d-424e25a3e944"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B791CA4-EFD3-48D4-9099-941E34D150B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F145B7BB-F317-46A1-B86F-8BCB9A96DDED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="037b9be7-2a32-4e2c-afc5-f4da28bcad7c"/>
+    <ds:schemaRef ds:uri="1d34d3a6-52ea-493c-a55d-424e25a3e944"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
